--- a/2025-03-03_o3-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Scleroderma.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Scleroderma.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prominent dysphagia for both liquids and solids with episodic regurgitation</t>
+          <t>Intermittent dysphagia with episodic food impaction</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This pattern is typical of Type 2 Achalasia where impaired esophageal motility leads to difficulty swallowing both liquids and solids, more characteristic of CREST syndrome with esophageal involvement than the fibrotic changes seen in scleroderma.</t>
+          <t>CREST syndrome with Type 2 Achalasia often presents with intermittent swallowing difficulties and episodes of food getting stuck, unlike the more constant progression seen in Scleroderma.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gradual onset of skin thickening and tightening</t>
+          <t>Progressive dysphagia associated with severe heartburn</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Progressive skin involvement is a hallmark of scleroderma and is usually absent in isolated CREST syndrome with Type 2 Achalasia.</t>
+          <t>Scleroderma typically results in progressive esophageal dysmotility with significant reflux symptoms due to lower esophageal sphincter incompetence.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sudden onset of dysphagic episodes that wax and wane</t>
+          <t>Chest pain episodes unrelated to exertion</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fluctuating symptoms point towards a motility disorder (Type 2 Achalasia) rather than the progressive, consistent course usually seen in scleroderma.</t>
+          <t>Patients with achalasia may experience non-cardiac chest pain associated with esophageal contraction and pressurization, which is less typical in classic Scleroderma presentations.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Persistent and worsening joint stiffness and pain</t>
+          <t>History of significant gastroesophageal reflux disease symptoms</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chronic musculoskeletal symptoms are common in scleroderma due to widespread fibrosis, differentiating it from the more isolated motility disorder in CREST with achalasia.</t>
+          <t>Prominent GERD-related symptoms, including chronic acid regurgitation and heartburn, are more characteristic of Scleroderma-related esophageal involvement.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Report of dysphagia in absence of significant skin tightening</t>
+          <t>History of episodic regurgitation without severe lower esophageal reflux symptoms</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of skin involvement on history favors CREST syndrome limited to esophageal dysmotility (Type 2 Achalasia) over widespread scleroderma.</t>
+          <t>Regurgitation in type 2 achalasia is due to impaired esophageal transit rather than acid reflux, which contrasts with the reflux-dominated symptoms in Scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Diffuse fatigue and generalized systemic symptoms</t>
+          <t>Worsening dysphagia correlating with skin tightening and sclerodactyly</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The systemic nature of scleroderma often presents with generalized fatigue and systemic complaints rather than symptoms confined to the esophagus.</t>
+          <t>The synchrony between progressive skin changes and esophageal dysfunction is a hallmark of Scleroderma rather than CREST with isolated achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intermittent episodes of chest discomfort related to swallowing</t>
+          <t>Fluctuating esophageal symptoms with periods of relative normalcy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chest discomfort associated with swallowing is more indicative of esophageal motility issues in CREST syndrome with Type 2 Achalasia, rather than the systemic features of scleroderma.</t>
+          <t>The intermittent nature of esophageal symptoms in CREST with Type 2 Achalasia (reflecting motility dysfunction) is distinct from the progressive, relentless nature typical of Scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of digital ulcerations and pitting scars</t>
+          <t>Persistent reflux symptoms despite antacid therapy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Digital ulcers are frequently seen in scleroderma due to vascular compromise, a feature not typical in CREST syndrome with limited esophageal dysmotility.</t>
+          <t>Persistent and resistant reflux symptoms, reflecting a fibrotic lower esophageal sphincter, are more suggestive of Scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of digital color changes (Raynaud’s phenomenon) without progressive skin fibrosis</t>
+          <t>Absence of overt skin thickening or sclerodactyly in patient history</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raynaud’s phenomenon is a component of CREST syndrome, and when it occurs without accompanying progressive skin thickening, it supports the CREST variant with isolated gastrointestinal (achalasia) involvement.</t>
+          <t>A lack of skin manifestations such as thickening or tightness supports the diagnosis of CREST syndrome with isolated esophageal involvement (Type 2 Achalasia) over systemic Scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chronic gastroesophageal reflux symptoms with heartburn</t>
+          <t>History of microstomia (small mouth opening) and facial skin tightening</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While reflux can be present in both conditions, in scleroderma it is often associated with progressive fibrosis of the esophagus leading to chronic and unremitting symptoms, in contrast to the episodic dysphagia of achalasia in CREST.</t>
+          <t>Additional systemic features such as microstomia provide supportive evidence for Scleroderma-related pathology.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Previous diagnosis or documentation of CREST syndrome (limited scleroderma)</t>
+          <t>History of limited cutaneous involvement with classic CREST features</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A documented history of CREST syndrome (limited cutaneous systemic sclerosis) strongly points toward the CREST phenotype associated with esophageal dysmotility including Type 2 Achalasia.</t>
+          <t>Patients with CREST syndrome typically have limited skin involvement confined mainly to the hands, face, and distal limbs, which is less common in diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of diffuse cutaneous skin involvement</t>
+          <t>History of diffuse skin thickening and widespread fibrosis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Diffuse skin thickening and widespread scleroderma skin changes are more characteristic of Scleroderma than the limited CREST variant.</t>
+          <t>Diffuse skin involvement is a hallmark of scleroderma, in contrast to the limited skin involvement seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud phenomenon treated with calcium channel blockers</t>
+          <t>Prior diagnosis or treatment for type 2 achalasia (e.g., pneumatic dilation, Heller myotomy)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud phenomenon is a component of CREST syndrome and its treatment history reinforces the limited scleroderma subtype rather than diffuse Scleroderma.</t>
+          <t>A documented history of procedures specifically addressing type 2 achalasia suggests esophageal dysmotility as seen in CREST rather than the multifactorial esophageal involvement in scleroderma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Prior episodes of scleroderma renal crisis</t>
+          <t>Past medical history of interstitial lung disease</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Renal crisis is a known complication of more extensive Scleroderma and is not typical in CREST syndrome with limited skin involvement.</t>
+          <t>Interstitial lung disease is commonly seen in scleroderma as part of its systemic manifestations, and is less typical in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of telangiectasias noted and possibly treated cosmetically or monitored</t>
+          <t>History of calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Telangiectasia is one of the key features in CREST syndrome, further supporting the limited cutaneous variant rather than typical Scleroderma.</t>
+          <t>Calcinosis is one of the hallmark features of CREST syndrome, distinguishing it from systemic scleroderma which more often demonstrates diffuse fibrosis rather than localized calcinosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Use of systemic immunosuppressants (eg, cyclophosphamide)</t>
+          <t>History of scleroderma renal crisis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Systemic immunosuppression is more commonly employed in diffuse Scleroderma to control internal organ involvement, supporting that diagnosis over CREST syndrome.</t>
+          <t>Renal crisis with malignant hypertension is a serious complication associated with scleroderma and is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Past surgical intervention specific for esophageal dysmotility (eg, pneumatic dilation)</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>An intervention aimed at treating achalasia supports the presence of esophageal motility disorders typical in CREST syndrome with Type 2 Achalasia.</t>
+          <t>Telangiectasias are a characteristic finding in CREST syndrome and support its diagnosis when seen in a patient's past medical history.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Past history of interstitial lung disease or pulmonary fibrosis diagnosis</t>
+          <t>Documented history of anti-Scl-70 (anti-topoisomerase I) autoantibody positivity with related treatment</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pulmonary fibrosis is more frequently associated with diffuse Scleroderma rather than the limited spectrum of CREST syndrome.</t>
+          <t>Anti-Scl-70 positivity is more commonly associated with diffuse scleroderma rather than with CREST syndrome, supporting a diagnosis of scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Medication history indicating use of proton pump inhibitors or motility agents for esophageal symptoms</t>
+          <t>Documented history of Raynaud phenomenon without rapid progression to systemic involvement</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regular use of these medications in context with other CREST findings would favor CREST with Type 2 Achalasia, where dysmotility is prominent over generalized fibrosis seen in Scleroderma.</t>
+          <t>Raynaud phenomenon in CREST tends to be isolated and stable over time, compared to the more rapidly progressive vascular complications seen in diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Documented history of digital ulcers or severe digital ischemia beyond Raynaud phenomenon</t>
+          <t>History of significant gastrointestinal reflux disease complications leading to esophageal stricture</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Severe digital ischemia with digital ulcerations is more characteristic of progressive Scleroderma than the more benign vasculopathy seen in CREST syndrome.</t>
+          <t>Severe GERD-related complications with esophageal stricturing more often occur in scleroderma, which can involve progressive fibrotic changes along the esophagus.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of limited scleroderma (CREST-type manifestations)</t>
+          <t>Positive family history of limited cutaneous systemic sclerosis or CREST features</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history specifically of limited scleroderma or CREST syndrome increases the pretest probability for CREST syndrome with Type 2 Achalasia over more diffuse scleroderma.</t>
+          <t>A family history of the limited form of systemic sclerosis (typically associated with CREST syndrome) supports the diagnosis of CREST syndrome with Type 2 Achalasia as it indicates a genetic predisposition to this specific subset.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of occupational exposure to silica or organic solvents</t>
+          <t>Family history of diffuse scleroderma or systemic sclerosis with severe organ involvement</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Exposure to silica and organic solvents is a known risk factor for scleroderma, favoring the diagnosis of scleroderma over CREST syndrome with Type 2 Achalasia.</t>
+          <t>A family history of the diffuse type of scleroderma indicates a genetic predisposition toward this more aggressive variant rather than CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lack of occupational exposure to industrial chemicals</t>
+          <t>Lack of significant occupational or environmental exposure</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CREST syndrome is less associated with environmental/occupational triggers such as exposure to chemicals than diffuse scleroderma, making this absence more supportive of CREST.</t>
+          <t>The absence of known environmental triggers (such as silica or solvent exposure) tends to favor CREST syndrome over the diffuse form of scleroderma, which is more commonly linked with such exposures.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Family history of diffuse scleroderma</t>
+          <t>Occupational exposure to silica, solvents, or other fibrogenic agents</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A family history that specifically includes diffuse scleroderma provides stronger genetic susceptibility for scleroderma rather than the limited CREST variant.</t>
+          <t>Exposure to these environmental toxins is more strongly associated with the development of diffuse scleroderma, helping to differentiate it from CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Female gender with a pattern of autoimmune conditions in first-degree relatives</t>
+          <t>Family history of autoimmune esophageal dysmotility</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A social history noting female sex along with familial autoimmune conditions, particularly limited cutaneous forms, supports CREST syndrome more than diffuse scleroderma.</t>
+          <t>A positive family history specifically of esophageal motility disorders, which are closely linked to Type 2 Achalasia, lends support to CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of residing in areas with industrial pollution</t>
+          <t>Personal history of cigarette smoking</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Living in industrially polluted areas increases the risk of environmental triggers for scleroderma, supporting this diagnosis over CREST syndrome.</t>
+          <t>Cigarette smoking is considered a risk factor for more severe vascular and fibrotic involvement typical of diffuse scleroderma rather than the limited cutaneous form seen in CREST.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of significant substance use (e.g., minimal smoking/alcohol intake)</t>
+          <t>Family history indicating anti-centromere antibody positivity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Minimal history of habits such as smoking or heavy alcohol use indirectly supports CREST by contrasting with patterns sometimes noted in patients with scleroderma linked to environmental factors.</t>
+          <t>Anti-centromere antibodies are associated with CREST syndrome; a family history suggestive of autoimmunity with this antibody profile supports CREST syndrome with associated motility abnormalities.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Positive history for smoking with a pattern of vascular and fibrotic complications</t>
+          <t>Family history of early-onset Raynaud phenomenon with rapid progression to organ involvement</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A social history significant for smoking may predispose to vascular injury and fibrosis associated with scleroderma, rather than the CREST variant.</t>
+          <t>Diffuse scleroderma often presents with early and rapidly progressive Raynaud phenomenon, and a family history of this pattern favors the diffuse subtype over CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of esophageal motility disorders</t>
+          <t>Social history lacking risk factors for aggressive fibrotic disease</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A familial trend for esophageal dysmotility, especially of the type seen in CREST-related Type 2 Achalasia, leans towards CREST syndrome over scleroderma.</t>
+          <t>A social history that does not include behaviors or exposures (e.g., smoking or industrial exposures) that are risk factors for the more severe, diffuse scleroderma phenotype helps discriminate in favor of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Family history of early onset autoimmune fibrotic disorders</t>
+          <t>Ethnic background known for higher incidence of diffuse scleroderma (e.g., African ancestry)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A familial pattern of early onset autoimmune fibrotic disorders typically aligns with the pathogenesis of scleroderma, thereby favoring that diagnosis over CREST syndrome with Type 2 Achalasia.</t>
+          <t>Certain ethnic groups have a higher prevalence of diffuse, more aggressive scleroderma, thereby supporting that diagnosis over CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prominent telangiectasia on the face and hands</t>
+          <t>Minimal skin thickening with preserved skin elasticity</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectases are a hallmark of CREST syndrome and are more commonly and prominently observed in CREST than in diffuse Scleroderma.</t>
+          <t>CREST syndrome with Type 2 Achalasia commonly has limited cutaneous involvement, whereas scleroderma typically presents with diffuse skin fibrosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Diffuse skin thickening beyond distal extremities</t>
+          <t>Diffuse skin thickening and induration (skin tightness)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Diffuse involvement of the skin, including the trunk and proximal limbs, is a classic finding in Scleroderma that is not typically present in CREST syndrome.</t>
+          <t>A hallmark of scleroderma is widespread skin fibrosis, which is generally absent in CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Calcinosis cutis (calcium deposits in the skin)</t>
+          <t>Absence of sclerodactyly (lack of finger tightening and claw-like deformities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of localized calcium deposits in soft tissue strongly supports CREST syndrome as opposed to the diffuse skin changes seen in Scleroderma.</t>
+          <t>In CREST the digital involvement is limited, contrasting with the prominent sclerodactyly seen in scleroderma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Firm, shiny, and taut skin with loss of skin folds</t>
+          <t>Marked sclerodactyly with finger tapering and claw-like deformities</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Scleroderma and reflects the underlying process of extensive skin fibrosis, which is less common in CREST syndrome.</t>
+          <t>Scleroderma is characterized by significant digital involvement, making sclerodactyly a strong indicator against CREST syndrome with isolated esophageal dysmotility.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Limited skin thickening confined to the distal extremities and face</t>
+          <t>Focal telangiectasias rather than widespread cutaneous involvement</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CREST syndrome typically demonstrates limited skin involvement (confined primarily to the fingers and face), in contrast to the widespread thickening seen in Scleroderma.</t>
+          <t>While telangiectasia can be present in both, CREST often shows more isolated lesions instead of the diffuse vascular changes common in scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Microstomia (small mouth opening) with perioral tightening</t>
+          <t>Calcinosis cutis (palpable calcium deposits in the skin)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A reduced mouth opening due to perioral skin tightening is frequently observed in Scleroderma and is not typical of CREST syndrome.</t>
+          <t>Calcium deposits in the soft tissue are often seen in scleroderma and are not a typical feature of CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Digital pitting scars and sclerodactyly of the fingers</t>
+          <t>Normal pulmonary auscultation without crackles</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While sclerodactyly may be seen in both conditions, digital pitting scars are more typical of CREST syndrome and less prominent in diffuse Scleroderma.</t>
+          <t>The absence of lung involvement (e.g., crackles or signs of interstitial lung disease) supports CREST as scleroderma is more likely to have pulmonary fibrosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Presence of cutaneous calcinosis is less pronounced</t>
+          <t>Digital ulcers or pitting scars on the fingertips</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>While calcinosis can be present in CREST syndrome, its relative absence or mild expression is more indicative of Scleroderma when diffuse skin changes are present.</t>
+          <t>These lesions are common in scleroderma due to vascular abnormalities and tissue ischemia, supporting the diagnosis over CREST syndrome with limited cutaneous changes.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of extensive cardiopulmonary findings on examination</t>
+          <t>Stable vital signs with no evidence of significant systemic hemodynamic instability</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome often show minimal cardiopulmonary involvement on physical exam, unlike Scleroderma, which can have significant lung and cardiac findings.</t>
+          <t>CREST with Type 2 Achalasia typically lacks the internal organ involvement (such as cardiac or renal complications) that are frequently seen in scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Evidence of significant internal organ involvement on exam (e.g., pulmonary findings)</t>
+          <t>Abnormal nailfold capillary loops observed on capillaroscopy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Scleroderma often presents with internal organ involvement such as pulmonary fibrosis detectable on exam, which is generally not a feature of CREST syndrome.</t>
+          <t>The presence of capillary abnormalities is a characteristic finding in scleroderma and is rarely seen in patients with isolated CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High-resolution esophageal manometry showing elevated integrated relaxation pressure with panesophageal pressurization</t>
+          <t>Esophageal manometry showing elevated integrated relaxation pressure (IRP) with incomplete lower esophageal sphincter (LES) relaxation and a spastic contraction pattern</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This manometric pattern is characteristic of Type 2 Achalasia, distinguishing it from the low-amplitude, ineffective peristalsis seen in scleroderma.</t>
+          <t>This manometric pattern is characteristic of Type 2 achalasia, a key feature in CREST syndrome with Type 2 Achalasia, distinguishing it from the smooth muscle atrophy seen in Scleroderma.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>High-resolution esophageal manometry revealing low-amplitude or absent peristalsis with decreased lower esophageal sphincter tone</t>
+          <t>Esophageal manometry revealing low LES resting pressure with widespread aperistalsis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This pattern is typical of scleroderma-induced esophageal dysfunction and contrasts with the increased pressures seen in achalasia.</t>
+          <t>A hypotensive LES with aperistalsis is typical of Scleroderma due to smooth muscle atrophy and fibrosis, contrasting with the spastic and non-relaxing LES seen in Type 2 achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium swallow demonstrating a classic 'bird-beak' narrowing at the esophagogastric junction</t>
+          <t>Barium swallow demonstrating a classic 'bird’s-beak' narrowing at the gastroesophageal junction</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The 'bird-beak' appearance is typical of achalasia and is not a feature of scleroderma, which more often shows a dilated esophagus with reflux changes.</t>
+          <t>The 'bird’s-beak' appearance is a hallmark of achalasia and is less typical in Scleroderma, where a wide, patulous esophagus is more common.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Barium swallow showing a markedly dilated esophagus with evidence of reflux and aperistalsis</t>
+          <t>Positive serologic test for anti-Scl-70 (anti-topoisomerase I) antibodies</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The dilated esophagus with reflux is more consistent with scleroderma's diffuse smooth muscle atrophy, not with the localized narrowing of achalasia.</t>
+          <t>Anti-Scl-70 antibodies are commonly associated with diffuse Scleroderma and strongly favor this diagnosis over CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Esophageal transit scintigraphy indicating markedly delayed esophageal emptying with minimal peristalsis</t>
+          <t>Positive serologic test for anti-centromere antibodies</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Delayed transit with little to no peristalsis supports the diagnosis of achalasia, differing from the moderate dysmotility seen in scleroderma.</t>
+          <t>Anti-centromere antibodies are frequently seen in CREST syndrome (limited systemic sclerosis) and support a diagnosis involving type 2 achalasia over diffuse Scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Esophageal pH monitoring demonstrating significant acid reflux</t>
+          <t>High-resolution chest CT showing interstitial lung disease (ILD) features</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Severe acid reflux is common in scleroderma due to lower esophageal sphincter incompetence, which is usually not present in achalasia.</t>
+          <t>Interstitial lung disease is frequently observed in patients with Scleroderma and is not a feature of CREST syndrome with Type 2 Achalasia, aiding differentiation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esophageal pH monitoring showing minimal acid reflux</t>
+          <t>High-pressure zones proximal to the LES on manometric evaluation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>In Type 2 Achalasia, acid exposure is usually not prominent, unlike scleroderma, which typically features significant reflux due to lower esophageal sphincter incompetence.</t>
+          <t>The presence of high-pressure zones proximal to a non-relaxing LES further supports an achalasia physiology as seen in CREST syndrome with Type 2 Achalasia, in contrast to the low-pressure sphincter in Scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Endoscopic findings of esophageal mucosal telangiectasias and potential strictures</t>
+          <t>Esophageal pH monitoring indicating significant acid reflux</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>These endoscopic changes are seen in scleroderma and indicate vascular ectasia and fibrosis rather than the structural changes of achalasia.</t>
+          <t>Severe acid reflux is a consequence of a hypotensive LES in Scleroderma and is less common in patients with achalasia-related motility disorders.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CT imaging or fluoroscopic studies confirming localized esophageal dysmotility confined primarily to the lower esophageal segment</t>
+          <t>Absence of significant esophageal acid exposure on pH monitoring</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>This localized motility disorder supports achalasia rather than the diffuse esophageal involvement seen in scleroderma.</t>
+          <t>While acid reflux is common in Scleroderma due to a hypotensive LES, its relative absence in these patients supports achalasia physiology associated with CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Histologic evidence from esophageal biopsies demonstrating collagen deposition and fibrosis</t>
+          <t>Barium swallow showing diffuse esophageal dilation without a 'bird’s-beak' narrowing pattern</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Colagenous fibrosis is a hallmark of scleroderma, helping differentiate it from the neuromuscular abnormality seen in achalasia.</t>
+          <t>The imaging appearance of a dilated esophagus with smooth tapering in Scleroderma contrasts with the focal 'bird’s-beak' narrowing seen in achalasia, supporting Scleroderma.</t>
         </is>
       </c>
     </row>
